--- a/dtpu_configurations/only_integer32/80mhz/mxu_7x7/utilization.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/mxu_7x7/utilization.xlsx
@@ -38,7 +38,7 @@
     <t>BUFG</t>
   </si>
   <si>
-    <t>impl_1, impl_1_place_report_utilization_0</t>
+    <t>retiming, retiming_place_report_utilization_0</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.0" customWidth="true"/>
+    <col min="1" max="1" width="48.75" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
     <col min="3" max="3" width="10.46875" customWidth="true"/>
     <col min="4" max="4" width="11.71875" customWidth="true"/>
@@ -154,19 +154,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>19.028196334838867</v>
+        <v>28.766918182373047</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.620689868927002</v>
+        <v>6.448275566101074</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>13.003759384155273</v>
+        <v>20.57988739013672</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>52.142860412597656</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>19.09090805053711</v>
+        <v>66.81818389892578</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>8.0</v>
